--- a/c1dataset/india_all_state.xlsx
+++ b/c1dataset/india_all_state.xlsx
@@ -30,15 +30,9 @@
     <t>Active Case</t>
   </si>
   <si>
-    <t xml:space="preserve">Andaman And Nicobar </t>
-  </si>
-  <si>
     <t>Andhra Pradesh</t>
   </si>
   <si>
-    <t xml:space="preserve">Arunachal Pradesh </t>
-  </si>
-  <si>
     <t xml:space="preserve">Assam </t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t xml:space="preserve">Chhattisgarh </t>
   </si>
   <si>
-    <t xml:space="preserve">Dadra And Nagar Haveli </t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
@@ -66,21 +57,12 @@
     <t xml:space="preserve">Himachal Pradesh </t>
   </si>
   <si>
-    <t>Union Territory of Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jharkhand </t>
-  </si>
-  <si>
     <t>Karnataka</t>
   </si>
   <si>
     <t>Kerala</t>
   </si>
   <si>
-    <t xml:space="preserve">Lakshadweep </t>
-  </si>
-  <si>
     <t xml:space="preserve">Madhya Pradesh </t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t xml:space="preserve">Sikkim </t>
   </si>
   <si>
-    <t>Telengana</t>
-  </si>
-  <si>
     <t>Tamil Nadu</t>
   </si>
   <si>
@@ -139,6 +118,27 @@
   </si>
   <si>
     <t>Name of State / UT</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Andaman &amp; Nicobar Island</t>
+  </si>
+  <si>
+    <t>Arunanchal Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daman &amp; Diu </t>
+  </si>
+  <si>
+    <t>Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
   </si>
 </sst>
 </file>
@@ -503,14 +503,14 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -527,160 +527,160 @@
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>3104</v>
+        <v>123090</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>818</v>
       </c>
       <c r="D2">
-        <v>2586</v>
+        <v>90988</v>
       </c>
       <c r="E2">
-        <v>473</v>
+        <v>31284</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>424767</v>
+        <v>3104</v>
       </c>
       <c r="C3">
-        <v>3884</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>321754</v>
+        <v>2586</v>
       </c>
       <c r="E3">
-        <v>99129</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4034</v>
+        <v>424767</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>3884</v>
       </c>
       <c r="D4">
-        <v>2822</v>
+        <v>321754</v>
       </c>
       <c r="E4">
-        <v>1205</v>
+        <v>99129</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>4034</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>105775</v>
-      </c>
-      <c r="C5">
-        <v>296</v>
-      </c>
       <c r="D5">
-        <v>83928</v>
+        <v>2822</v>
       </c>
       <c r="E5">
-        <v>21548</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>135013</v>
+        <v>105775</v>
       </c>
       <c r="C6">
-        <v>688</v>
+        <v>296</v>
       </c>
       <c r="D6">
-        <v>117305</v>
+        <v>83928</v>
       </c>
       <c r="E6">
-        <v>17019</v>
+        <v>21548</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>4155</v>
+        <v>135013</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>688</v>
       </c>
       <c r="D7">
-        <v>2296</v>
+        <v>117305</v>
       </c>
       <c r="E7">
-        <v>1805</v>
+        <v>17019</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>30092</v>
+        <v>4155</v>
       </c>
       <c r="C8">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>16303</v>
+        <v>2296</v>
       </c>
       <c r="E8">
-        <v>13520</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2340</v>
+        <v>30092</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="D9">
-        <v>2042</v>
+        <v>16303</v>
       </c>
       <c r="E9">
-        <v>276</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>173390</v>
+        <v>2340</v>
       </c>
       <c r="C10">
-        <v>4426</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>154171</v>
+        <v>2042</v>
       </c>
       <c r="E10">
-        <v>14793</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>17004</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3">
         <v>95155</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>63282</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>5945</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>37163</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="16" spans="1:5" ht="18">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>38435</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="17" spans="1:5" ht="18">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>335928</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="18" spans="1:5" ht="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>73856</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="19" spans="1:5" ht="18">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="20" spans="1:5" ht="18">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>62443</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="21" spans="1:5" ht="18">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>780689</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>6112</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="23" spans="1:5" ht="18">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>2343</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="24" spans="1:5" ht="18">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>1008</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="25" spans="1:5" ht="18">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>3922</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="26" spans="1:5" ht="18">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>100934</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="27" spans="1:5" ht="18">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>14127</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="28" spans="1:5" ht="18">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>52526</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="29" spans="1:5" ht="18">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>80227</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="30" spans="1:5" ht="18">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>1627</v>
@@ -1020,121 +1020,121 @@
     </row>
     <row r="31" spans="1:5" ht="18">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>123090</v>
+        <v>422085</v>
       </c>
       <c r="C31">
-        <v>818</v>
+        <v>7231</v>
       </c>
       <c r="D31">
-        <v>90988</v>
+        <v>362122</v>
       </c>
       <c r="E31">
-        <v>31284</v>
+        <v>52721</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>422085</v>
+        <v>11323</v>
       </c>
       <c r="C32">
-        <v>7231</v>
+        <v>98</v>
       </c>
       <c r="D32">
-        <v>362122</v>
+        <v>7232</v>
       </c>
       <c r="E32">
-        <v>52721</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>11323</v>
+        <v>225632</v>
       </c>
       <c r="C33">
-        <v>98</v>
+        <v>3423</v>
       </c>
       <c r="D33">
-        <v>7232</v>
+        <v>167543</v>
       </c>
       <c r="E33">
-        <v>3974</v>
+        <v>54666</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>225632</v>
+        <v>19235</v>
       </c>
       <c r="C34">
-        <v>3423</v>
+        <v>257</v>
       </c>
       <c r="D34">
-        <v>167543</v>
+        <v>13004</v>
       </c>
       <c r="E34">
-        <v>54666</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>19235</v>
+        <v>159785</v>
       </c>
       <c r="C35">
-        <v>257</v>
+        <v>3176</v>
       </c>
       <c r="D35">
-        <v>13004</v>
+        <v>130952</v>
       </c>
       <c r="E35">
-        <v>5912</v>
+        <v>25657</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>159785</v>
+        <v>2638</v>
       </c>
       <c r="C36">
-        <v>3176</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>130952</v>
+        <v>1757</v>
       </c>
       <c r="E36">
-        <v>25657</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>2638</v>
+        <v>173390</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>4426</v>
       </c>
       <c r="D37">
-        <v>1757</v>
+        <v>154171</v>
       </c>
       <c r="E37">
-        <v>847</v>
+        <v>14793</v>
       </c>
     </row>
   </sheetData>
